--- a/Excel_Files/Stats_Populations/2.5_cm/686_nm_v.xlsx
+++ b/Excel_Files/Stats_Populations/2.5_cm/686_nm_v.xlsx
@@ -459,28 +459,28 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>0.0002309392409121635</v>
+        <v>0.0004482196296068634</v>
       </c>
       <c r="D2">
-        <v>0.0004249947616392211</v>
+        <v>0.0006766068242530994</v>
       </c>
       <c r="E2">
-        <v>0.0002602719817349507</v>
+        <v>0.0004643928230581557</v>
       </c>
       <c r="F2">
-        <v>0.0002358049628205837</v>
+        <v>0.0004526164554610488</v>
       </c>
       <c r="G2">
-        <v>0.000130223913581799</v>
+        <v>0.0002920089794507004</v>
       </c>
       <c r="H2">
-        <v>0.0004249947616392211</v>
+        <v>0.0006766068242530994</v>
       </c>
       <c r="I2">
-        <v>0.0004425956484116972</v>
+        <v>0.0007611198441998912</v>
       </c>
       <c r="J2">
-        <v>0.0005810778356249612</v>
+        <v>0.0009207330044701011</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -491,28 +491,28 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>0.000112332188004902</v>
+        <v>0.0002591533119414214</v>
       </c>
       <c r="D3">
-        <v>0.0003257395958916814</v>
+        <v>0.0005669672908447481</v>
       </c>
       <c r="E3">
-        <v>0.0001719681546637833</v>
+        <v>0.0003579778834178414</v>
       </c>
       <c r="F3">
-        <v>8.69431611658144E-05</v>
+        <v>0.0002105655972626355</v>
       </c>
       <c r="G3">
-        <v>8.143458965339465E-05</v>
+        <v>0.0001990713126464498</v>
       </c>
       <c r="H3">
-        <v>0.0001811705969923793</v>
+        <v>0.0003727709895866459</v>
       </c>
       <c r="I3">
-        <v>0.0001882813002386454</v>
+        <v>0.0003897733335164565</v>
       </c>
       <c r="J3">
-        <v>0.0001032485023542453</v>
+        <v>0.0002383381737836368</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -523,28 +523,28 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>5.903785054115279E-05</v>
+        <v>0.0001535510334348828</v>
       </c>
       <c r="D4">
-        <v>0.0001432090079832966</v>
+        <v>0.0003024333200570109</v>
       </c>
       <c r="E4">
-        <v>0.0001096235147044383</v>
+        <v>0.0002506824589861049</v>
       </c>
       <c r="F4">
-        <v>3.040990576170122E-05</v>
+        <v>8.936553061057721E-05</v>
       </c>
       <c r="G4">
-        <v>2.641847459836649E-05</v>
+        <v>7.862007906341473E-05</v>
       </c>
       <c r="H4">
-        <v>7.726825563219386E-05</v>
+        <v>0.0001905012534196547</v>
       </c>
       <c r="I4">
-        <v>0.0001226463532670197</v>
+        <v>0.0002783342029700484</v>
       </c>
       <c r="J4">
-        <v>3.281535333539027E-05</v>
+        <v>9.302156805455019E-05</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -555,28 +555,28 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>2.300401698143738E-06</v>
+        <v>1.032495617285306E-05</v>
       </c>
       <c r="D5">
-        <v>3.268586161741076E-06</v>
+        <v>1.388263692957551E-05</v>
       </c>
       <c r="E5">
-        <v>2.372453773921665E-06</v>
+        <v>1.050091224361124E-05</v>
       </c>
       <c r="F5">
-        <v>1.007874840847235E-06</v>
+        <v>5.246161092348779E-06</v>
       </c>
       <c r="G5">
-        <v>5.681581091470229E-07</v>
+        <v>3.22475264611149E-06</v>
       </c>
       <c r="H5">
-        <v>1.218561802960971E-06</v>
+        <v>6.199451056488974E-06</v>
       </c>
       <c r="I5">
-        <v>2.120717700861596E-06</v>
+        <v>9.613419116884428E-06</v>
       </c>
       <c r="J5">
-        <v>2.081342330907192E-06</v>
+        <v>9.357901203891733E-06</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -587,28 +587,28 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>1.317136358655305E-06</v>
+        <v>6.45510077834961E-06</v>
       </c>
       <c r="D6">
-        <v>1.077228509407864E-06</v>
+        <v>5.626859687341309E-06</v>
       </c>
       <c r="E6">
-        <v>9.416915492764939E-07</v>
+        <v>4.893930646697137E-06</v>
       </c>
       <c r="F6">
-        <v>3.624942224305535E-07</v>
+        <v>2.233248774208818E-06</v>
       </c>
       <c r="G6">
-        <v>2.179115449620833E-07</v>
+        <v>1.471197309781163E-06</v>
       </c>
       <c r="H6">
-        <v>3.723344540678026E-07</v>
+        <v>2.305361218713904E-06</v>
       </c>
       <c r="I6">
-        <v>1.273217402207721E-06</v>
+        <v>6.222348056652826E-06</v>
       </c>
       <c r="J6">
-        <v>1.184913064162967E-06</v>
+        <v>5.819402556813009E-06</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -619,28 +619,28 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>6.766662369141383E-07</v>
+        <v>3.750582036460168E-06</v>
       </c>
       <c r="D7">
-        <v>3.726682168772675E-07</v>
+        <v>2.298730551980212E-06</v>
       </c>
       <c r="E7">
-        <v>2.576236820294142E-07</v>
+        <v>1.674027882758242E-06</v>
       </c>
       <c r="F7">
-        <v>8.108217606321517E-08</v>
+        <v>6.414573934199967E-07</v>
       </c>
       <c r="G7">
-        <v>1.134125954961433E-07</v>
+        <v>8.582644984622315E-07</v>
       </c>
       <c r="H7">
-        <v>8.108217606321517E-08</v>
+        <v>6.414573934199967E-07</v>
       </c>
       <c r="I7">
-        <v>6.878298109578027E-07</v>
+        <v>3.773313320228382E-06</v>
       </c>
       <c r="J7">
-        <v>5.717432883348401E-07</v>
+        <v>3.183802728782166E-06</v>
       </c>
     </row>
   </sheetData>
